--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3883.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3883.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3883</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Benjamin Andrew Stokes</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3321</t>
+          <t>3321</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -544,7 +609,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>03/09/2011</t>
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3322</t>
+          <t>3322</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -592,7 +656,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>06/09/2011</t>
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3323</t>
+          <t>3323</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3325</t>
+          <t>3325</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3327</t>
+          <t>3327</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -744,7 +807,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>03/09/2013</t>
@@ -752,7 +814,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3551</t>
+          <t>3551</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -804,7 +866,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3555</t>
+          <t>3555</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -844,7 +906,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>11/09/2013</t>
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3557</t>
+          <t>3557</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -904,7 +965,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3558</t>
+          <t>3558</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -956,7 +1017,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3559</t>
+          <t>3559</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1008,7 +1069,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3599</t>
+          <t>3599</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1060,7 +1121,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3600</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1112,7 +1173,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3602</t>
+          <t>3602</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1164,7 +1225,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3606</t>
+          <t>3606</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1216,7 +1277,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3608</t>
+          <t>3608</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1268,7 +1329,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3622</t>
+          <t>3622</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1320,7 +1381,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3625</t>
+          <t>3625</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1372,7 +1433,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3629</t>
+          <t>3629</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1424,7 +1485,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3664</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1476,7 +1537,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3667</t>
+          <t>3667</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1528,7 +1589,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3672</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1580,7 +1641,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3703</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1620,7 +1681,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>03/12/2014</t>
@@ -1628,7 +1688,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3710</t>
+          <t>3710</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1680,7 +1740,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3712</t>
+          <t>3712</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1732,7 +1792,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3804</t>
+          <t>3804</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1784,7 +1844,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3805</t>
+          <t>3805</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1836,7 +1896,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3806</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1888,7 +1948,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3807</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1940,7 +2000,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3809</t>
+          <t>3809</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1992,7 +2052,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3830</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2044,7 +2104,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3831</t>
+          <t>3831</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2096,7 +2156,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3832</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2148,7 +2208,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3833</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2200,7 +2260,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3834</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2252,7 +2312,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3885</t>
+          <t>3885</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2304,7 +2364,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3887</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2356,7 +2416,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3889</t>
+          <t>3889</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2408,7 +2468,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3890</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2460,7 +2520,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3891</t>
+          <t>3891</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2512,7 +2572,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2564,7 +2624,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2604,7 +2664,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>30/08/2016</t>
@@ -2612,7 +2671,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2664,7 +2723,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3930</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2716,7 +2775,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2768,7 +2827,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3946</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2820,7 +2879,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3948</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2872,7 +2931,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3949</t>
+          <t>3949</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2924,7 +2983,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2976,7 +3035,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3028,7 +3087,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3978</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3080,7 +3139,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4001</t>
+          <t>4001</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3132,7 +3191,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4004</t>
+          <t>4004</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3184,7 +3243,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4005</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3236,7 +3295,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4028</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3288,7 +3347,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4029</t>
+          <t>4029</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3328,7 +3387,6 @@
           <t>56</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>01/06/2017</t>
@@ -3336,7 +3394,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3388,7 +3446,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3440,7 +3498,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3492,7 +3550,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4045</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3544,7 +3602,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4068</t>
+          <t>4068</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3584,7 +3642,6 @@
           <t>61</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>21/09/2017</t>
@@ -3592,7 +3649,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4070</t>
+          <t>4070</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3644,7 +3701,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4072</t>
+          <t>4072</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3696,7 +3753,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3748,7 +3805,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3800,7 +3857,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3852,7 +3909,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3904,7 +3961,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3956,7 +4013,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4008,7 +4065,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4048,7 +4105,6 @@
           <t>70</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>17/07/2018</t>
@@ -4056,7 +4112,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4096,7 +4152,6 @@
           <t>71</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>10/10/2018</t>
@@ -4104,7 +4159,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4209</t>
+          <t>4209</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4156,7 +4211,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4210</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4208,7 +4263,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4211</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4248,7 +4303,6 @@
           <t>74</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>20/10/2018</t>
@@ -4256,7 +4310,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4212</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4308,7 +4362,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4360,7 +4414,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4253</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4412,7 +4466,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4464,7 +4518,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4256</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4516,7 +4570,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4260</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4556,7 +4610,6 @@
           <t>80</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -4564,7 +4617,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4287</t>
+          <t>4287</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4604,7 +4657,6 @@
           <t>81</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>11/05/2019</t>
@@ -4612,7 +4664,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4664,7 +4716,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4716,7 +4768,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4768,7 +4820,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4820,7 +4872,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4303</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4872,7 +4924,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4924,7 +4976,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4976,7 +5028,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5028,7 +5080,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5080,7 +5132,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4331</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5132,7 +5184,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5184,7 +5236,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5236,7 +5288,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5276,7 +5328,6 @@
           <t>94</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
           <t>11/07/2019</t>
@@ -5284,7 +5335,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5336,7 +5387,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5388,7 +5439,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5440,7 +5491,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5492,7 +5543,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5532,7 +5583,6 @@
           <t>99</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
           <t>08/07/2021</t>
@@ -5540,7 +5590,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4472</t>
+          <t>4472</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5592,7 +5642,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4473</t>
+          <t>4473</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5644,7 +5694,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4476</t>
+          <t>4476</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5696,7 +5746,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5748,7 +5798,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5800,7 +5850,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5852,7 +5902,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4619</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5891,7 +5941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5913,7 +5963,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -5950,7 +6000,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3551</t>
+          <t>3551</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5987,7 +6037,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3555</t>
+          <t>3555</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -6024,7 +6074,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3558</t>
+          <t>3558</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -6061,7 +6111,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3559</t>
+          <t>3559</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -6098,7 +6148,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3599</t>
+          <t>3599</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -6135,7 +6185,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3600</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -6172,7 +6222,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3602</t>
+          <t>3602</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -6209,7 +6259,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3606</t>
+          <t>3606</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -6246,7 +6296,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3608</t>
+          <t>3608</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -6283,7 +6333,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3625</t>
+          <t>3625</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -6320,7 +6370,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3629</t>
+          <t>3629</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -6357,7 +6407,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3664</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -6394,7 +6444,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3667</t>
+          <t>3667</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -6431,7 +6481,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3672</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -6468,7 +6518,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3703</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -6505,7 +6555,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3710</t>
+          <t>3710</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -6542,7 +6592,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3712</t>
+          <t>3712</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -6579,7 +6629,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3804</t>
+          <t>3804</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -6616,7 +6666,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3805</t>
+          <t>3805</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6653,7 +6703,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3806</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -6690,7 +6740,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3807</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -6727,7 +6777,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3809</t>
+          <t>3809</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -6764,7 +6814,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3830</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -6801,7 +6851,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3831</t>
+          <t>3831</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -6838,7 +6888,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3832</t>
+          <t>3832</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -6875,7 +6925,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3833</t>
+          <t>3833</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -6912,7 +6962,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3885</t>
+          <t>3885</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6949,7 +6999,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3887</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6986,7 +7036,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3889</t>
+          <t>3889</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -7023,7 +7073,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3890</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -7060,7 +7110,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3891</t>
+          <t>3891</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -7097,7 +7147,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -7134,7 +7184,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3930</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7171,7 +7221,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7208,7 +7258,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3946</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7245,7 +7295,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3948</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7282,7 +7332,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3949</t>
+          <t>3949</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7319,7 +7369,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -7356,7 +7406,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -7393,7 +7443,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3978</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -7430,7 +7480,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4004</t>
+          <t>4004</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -7467,7 +7517,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4005</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -7504,7 +7554,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4028</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -7541,7 +7591,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4029</t>
+          <t>4029</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -7578,7 +7628,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -7615,7 +7665,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -7652,7 +7702,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -7689,7 +7739,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4045</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -7726,7 +7776,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4068</t>
+          <t>4068</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -7763,7 +7813,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4072</t>
+          <t>4072</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -7800,7 +7850,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -7837,7 +7887,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -7874,7 +7924,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -7911,7 +7961,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -7948,7 +7998,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -7985,7 +8035,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -8022,7 +8072,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -8059,7 +8109,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -8096,7 +8146,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4211</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -8133,7 +8183,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4212</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -8170,7 +8220,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -8207,7 +8257,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4253</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -8244,7 +8294,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -8281,7 +8331,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4256</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -8318,7 +8368,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4287</t>
+          <t>4287</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -8355,7 +8405,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -8392,7 +8442,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -8429,7 +8479,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -8466,7 +8516,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -8503,7 +8553,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4303</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -8540,7 +8590,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -8577,7 +8627,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -8614,7 +8664,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -8651,7 +8701,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -8688,7 +8738,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4331</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -8725,7 +8775,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -8762,7 +8812,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -8799,7 +8849,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -8836,7 +8886,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -8873,7 +8923,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -8910,7 +8960,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -8947,7 +8997,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -8984,7 +9034,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -9021,7 +9071,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4472</t>
+          <t>4472</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -9058,7 +9108,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4476</t>
+          <t>4476</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -9095,7 +9145,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -9132,7 +9182,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -9169,7 +9219,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4619</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -9195,6 +9245,545 @@
       <c r="G89" t="inlineStr">
         <is>
           <t>0/44</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4308</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4314</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.55%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4321</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.69%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4331</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>38.68%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>40.27%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.44%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.40%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10.87%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4472</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4473</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8.91%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4476</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>9.64%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>8.54%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10.42%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3883.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3883.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9305,10 +9306,6 @@
           <t>4308</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9381,10 +9378,6 @@
           <t>4326</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9487,10 +9480,6 @@
           <t>4346</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9506,9 +9495,6 @@
       <c r="B10" t="n">
         <v>5</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9521,225 +9507,517 @@
           <t>4355</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.40%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10.87%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4472</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4473</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8.91%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4476</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>9.64%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>8.54%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10.42%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4303</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4308</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4314</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4321</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4331</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4454</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="inlineStr">
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.40%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4456</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4457</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>10.87%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4472</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4473</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>8.91%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4476</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>9.64%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4472</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4609</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" t="inlineStr">
+          <t>4476</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>8.54%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9747,29 +10025,12 @@
           <t>4618</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>10.42%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9779,13 +10040,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3883.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3883.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4623,7 +4622,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -9306,6 +9305,10 @@
           <t>4308</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9378,6 +9381,10 @@
           <t>4326</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9480,6 +9487,10 @@
           <t>4346</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9495,6 +9506,9 @@
       <c r="B10" t="n">
         <v>5</v>
       </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9507,6 +9521,10 @@
           <t>4355</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9549,6 +9567,10 @@
           <t>4456</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9594,6 +9616,9 @@
       <c r="B15" t="n">
         <v>5</v>
       </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9679,6 +9704,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9751,295 +9777,15 @@
           <t>4619</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4300</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4303</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4308</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4314</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4321</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4326</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4331</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4336</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4342</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4346</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4354</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4454</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4456</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4457</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4472</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4476</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4609</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3883.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3883.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,6 +608,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>03/09/2011</t>
@@ -656,6 +656,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>06/09/2011</t>
@@ -807,6 +808,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>03/09/2013</t>
@@ -906,6 +908,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>11/09/2013</t>
@@ -1681,6 +1684,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>03/12/2014</t>
@@ -2664,6 +2668,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>30/08/2016</t>
@@ -3387,6 +3392,7 @@
           <t>56</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>01/06/2017</t>
@@ -3642,6 +3648,7 @@
           <t>61</t>
         </is>
       </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>21/09/2017</t>
@@ -4105,6 +4112,7 @@
           <t>70</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>17/07/2018</t>
@@ -4152,6 +4160,7 @@
           <t>71</t>
         </is>
       </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>10/10/2018</t>
@@ -4303,6 +4312,7 @@
           <t>74</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>20/10/2018</t>
@@ -4610,6 +4620,7 @@
           <t>80</t>
         </is>
       </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -4657,6 +4668,7 @@
           <t>81</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>11/05/2019</t>
@@ -5328,6 +5340,7 @@
           <t>94</t>
         </is>
       </c>
+      <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
           <t>11/07/2019</t>
@@ -5583,6 +5596,7 @@
           <t>99</t>
         </is>
       </c>
+      <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
           <t>08/07/2021</t>
@@ -9251,543 +9265,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4308</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4314</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1.55%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4321</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.69%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4326</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4331</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>38.68%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4336</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>40.27%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4342</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>23.44%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4346</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4354</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4454</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.40%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4456</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4457</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>10.87%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4472</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4473</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>8.91%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4476</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>9.64%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4609</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>8.54%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>10.42%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>